--- a/templates/export/devicegeofencedistances.xlsx
+++ b/templates/export/devicegeofencedistances.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filing Cabinet\IdeaProjects\test\templates\export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA94DC1F-05AA-4A21-B379-5C7A29FD09B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -29,11 +35,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="G9")</t>
+          <t>jx:area(lastCell="G9")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -43,11 +49,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="devices", var="device", lastCell="G9" multisheet="sheetNames")</t>
+          <t>jx:each(items="devices", var="device", lastCell="G9" multisheet="sheetNames")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{1A0447F0-35D8-4F49-9160-74EBF4725CCB}">
       <text>
         <r>
           <rPr>
@@ -57,7 +63,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="device.objects", var="record", lastCell="G9")</t>
+          <t>jx:each(items="device.objects", var="record", lastCell="G9")</t>
         </r>
       </text>
     </comment>
@@ -66,79 +72,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">Report type:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geofence Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${device.deviceName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${device.groupName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segment Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geofence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odo Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odo End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${record.type}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${geofenceNames[record.geofenceId]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${dateTool.format("YYYY-MM-dd HH:mm:ss", record.startTime, locale, timezone)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${record.endTime != null ? dateTool.format("YYYY-MM-dd HH:mm:ss", record.endTime, locale, timezone) : "Open"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${distanceUnit.equals("mi") ? "".format("%.2f mi", record.odoStart * 0.000621371) : distanceUnit.equals("nmi") ? "".format("%.2f nmi", record.odoStart * 0.000539957) : "".format("%.2f km", record.odoStart * 0.001)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${record.odoEnd &gt; 0 ? (distanceUnit.equals("mi") ? "".format("%.2f mi", record.odoEnd * 0.000621371) : distanceUnit.equals("nmi") ? "".format("%.2f nmi", record.odoEnd * 0.000539957) : "".format("%.2f km", record.odoEnd * 0.001)) : ""}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${record.distance &gt; 0 ? (distanceUnit.equals("mi") ? "".format("%.2f mi", record.distance * 0.000621371) : distanceUnit.equals("nmi") ? "".format("%.2f nmi", record.distance * 0.000539957) : "".format("%.2f km", record.distance * 0.001)) : ""}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Report type:</t>
+  </si>
+  <si>
+    <t>Geofence Distance</t>
+  </si>
+  <si>
+    <t>Device:</t>
+  </si>
+  <si>
+    <t>${device.deviceName}</t>
+  </si>
+  <si>
+    <t>Group:</t>
+  </si>
+  <si>
+    <t>${device.groupName}</t>
+  </si>
+  <si>
+    <t>Period:</t>
+  </si>
+  <si>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", from, locale, timezone)+" - "+dateTool.format("YYYY-MM-dd HH:mm:ss", to, locale, timezone)}</t>
+  </si>
+  <si>
+    <t>Segment Type</t>
+  </si>
+  <si>
+    <t>Geofence</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Odo Start</t>
+  </si>
+  <si>
+    <t>Odo End</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>${record.type}</t>
+  </si>
+  <si>
+    <t>${geofenceNames[record.geofenceId]}</t>
+  </si>
+  <si>
+    <t>${dateTool.format("YYYY-MM-dd HH:mm:ss", record.startTime, locale, timezone)}</t>
+  </si>
+  <si>
+    <t>${record.endTime != null ? dateTool.format("YYYY-MM-dd HH:mm:ss", record.endTime, locale, timezone) : "Open"}</t>
+  </si>
+  <si>
+    <t>${distanceUnit.equals("mi") ? "".format("%.2f mi", record.odoStart * 0.000621371) : distanceUnit.equals("nmi") ? "".format("%.2f nmi", record.odoStart * 0.000539957) : "".format("%.2f km", record.odoStart * 0.001)}</t>
+  </si>
+  <si>
+    <t>${record.odoEnd &gt; 0 ? (distanceUnit.equals("mi") ? "".format("%.2f mi", record.odoEnd * 0.000621371) : distanceUnit.equals("nmi") ? "".format("%.2f nmi", record.odoEnd * 0.000539957) : "".format("%.2f km", record.odoEnd * 0.001)) : ""}</t>
+  </si>
+  <si>
+    <t>${record.distance &gt; 0 ? (distanceUnit.equals("mi") ? "".format("%.2f mi", record.distance * 0.000621371) : distanceUnit.equals("nmi") ? "".format("%.2f nmi", record.distance * 0.000539957) : "".format("%.2f km", record.distance * 0.001)) : ""}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +159,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,72 +195,358 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+  <a:themeElements>
+    <a:clrScheme name="Office 2007 - 2010">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office 2007 - 2010">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office 2007 - 2010">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="4" width="20" customWidth="1"/>
+    <col min="5" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" s="1" customFormat="true" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -265,33 +564,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>